--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.679685318926184</v>
+        <v>0.8672823333333334</v>
       </c>
       <c r="N2">
-        <v>0.679685318926184</v>
+        <v>2.601847</v>
       </c>
       <c r="O2">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="P2">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="Q2">
-        <v>7.647913167797598</v>
+        <v>17.18547812172311</v>
       </c>
       <c r="R2">
-        <v>7.647913167797598</v>
+        <v>154.669303095508</v>
       </c>
       <c r="S2">
-        <v>0.0004459265593678315</v>
+        <v>0.0005707550072202343</v>
       </c>
       <c r="T2">
-        <v>0.0004459265593678315</v>
+        <v>0.0005707550072202343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.18365333282934</v>
+        <v>1.185693666666667</v>
       </c>
       <c r="N3">
-        <v>1.18365333282934</v>
+        <v>3.557081</v>
       </c>
       <c r="O3">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="P3">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="Q3">
-        <v>13.31863092843433</v>
+        <v>23.49490100789822</v>
       </c>
       <c r="R3">
-        <v>13.31863092843433</v>
+        <v>211.454109071084</v>
       </c>
       <c r="S3">
-        <v>0.0007765688672321867</v>
+        <v>0.0007803002220491666</v>
       </c>
       <c r="T3">
-        <v>0.0007765688672321867</v>
+        <v>0.0007803002220491665</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.61944302727373</v>
+        <v>16.21723233333333</v>
       </c>
       <c r="N4">
-        <v>6.61944302727373</v>
+        <v>48.651697</v>
       </c>
       <c r="O4">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="P4">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="Q4">
-        <v>74.48288801022461</v>
+        <v>321.3496698223231</v>
       </c>
       <c r="R4">
-        <v>74.48288801022461</v>
+        <v>2892.147028400908</v>
       </c>
       <c r="S4">
-        <v>0.004342870696025922</v>
+        <v>0.01067249522070731</v>
       </c>
       <c r="T4">
-        <v>0.004342870696025922</v>
+        <v>0.01067249522070731</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.99023059359207</v>
+        <v>11.00545633333333</v>
       </c>
       <c r="N5">
-        <v>8.99023059359207</v>
+        <v>33.016369</v>
       </c>
       <c r="O5">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="P5">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="Q5">
-        <v>101.1593174425131</v>
+        <v>218.0766536649684</v>
       </c>
       <c r="R5">
-        <v>101.1593174425131</v>
+        <v>1962.689882984716</v>
       </c>
       <c r="S5">
-        <v>0.005898292172703701</v>
+        <v>0.007242646445767533</v>
       </c>
       <c r="T5">
-        <v>0.005898292172703701</v>
+        <v>0.007242646445767532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H6">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.09530791525976</v>
+        <v>7.413711999999999</v>
       </c>
       <c r="N6">
-        <v>7.09530791525976</v>
+        <v>22.241136</v>
       </c>
       <c r="O6">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="P6">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="Q6">
-        <v>79.83738551308466</v>
+        <v>146.9050855527893</v>
       </c>
       <c r="R6">
-        <v>79.83738551308466</v>
+        <v>1322.145769975104</v>
       </c>
       <c r="S6">
-        <v>0.004655075162291016</v>
+        <v>0.004878933979694506</v>
       </c>
       <c r="T6">
-        <v>0.004655075162291016</v>
+        <v>0.004878933979694505</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H7">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.482924223468814</v>
+        <v>0.522545</v>
       </c>
       <c r="N7">
-        <v>0.482924223468814</v>
+        <v>1.567635</v>
       </c>
       <c r="O7">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="P7">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="Q7">
-        <v>5.433930121590111</v>
+        <v>10.35439708612667</v>
       </c>
       <c r="R7">
-        <v>5.433930121590111</v>
+        <v>93.18957377514</v>
       </c>
       <c r="S7">
-        <v>0.0003168359407071695</v>
+        <v>0.0003438847579214658</v>
       </c>
       <c r="T7">
-        <v>0.0003168359407071695</v>
+        <v>0.0003438847579214657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.679685318926184</v>
+        <v>0.8672823333333334</v>
       </c>
       <c r="N8">
-        <v>0.679685318926184</v>
+        <v>2.601847</v>
       </c>
       <c r="O8">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="P8">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="Q8">
-        <v>352.0616016214302</v>
+        <v>459.9194313787108</v>
       </c>
       <c r="R8">
-        <v>352.0616016214302</v>
+        <v>4139.274882408397</v>
       </c>
       <c r="S8">
-        <v>0.02052764136465512</v>
+        <v>0.01527460082972439</v>
       </c>
       <c r="T8">
-        <v>0.02052764136465512</v>
+        <v>0.01527460082972439</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.18365333282934</v>
+        <v>1.185693666666667</v>
       </c>
       <c r="N9">
-        <v>1.18365333282934</v>
+        <v>3.557081</v>
       </c>
       <c r="O9">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="P9">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="Q9">
-        <v>613.1056189043539</v>
+        <v>628.7728182664144</v>
       </c>
       <c r="R9">
-        <v>613.1056189043539</v>
+        <v>5658.955364397731</v>
       </c>
       <c r="S9">
-        <v>0.03574832417270183</v>
+        <v>0.02088247018137379</v>
       </c>
       <c r="T9">
-        <v>0.03574832417270183</v>
+        <v>0.02088247018137379</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.61944302727373</v>
+        <v>16.21723233333333</v>
       </c>
       <c r="N10">
-        <v>6.61944302727373</v>
+        <v>48.651697</v>
       </c>
       <c r="O10">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="P10">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="Q10">
-        <v>3428.72157030788</v>
+        <v>8599.99101401786</v>
       </c>
       <c r="R10">
-        <v>3428.72157030788</v>
+        <v>77399.91912616075</v>
       </c>
       <c r="S10">
-        <v>0.1999183279584701</v>
+        <v>0.285618351641622</v>
       </c>
       <c r="T10">
-        <v>0.1999183279584701</v>
+        <v>0.285618351641622</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.99023059359207</v>
+        <v>11.00545633333333</v>
       </c>
       <c r="N11">
-        <v>8.99023059359207</v>
+        <v>33.016369</v>
       </c>
       <c r="O11">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="P11">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="Q11">
-        <v>4656.735835822499</v>
+        <v>5836.188544779801</v>
       </c>
       <c r="R11">
-        <v>4656.735835822499</v>
+        <v>52525.69690301822</v>
       </c>
       <c r="S11">
-        <v>0.2715201053663646</v>
+        <v>0.1938284062521303</v>
       </c>
       <c r="T11">
-        <v>0.2715201053663646</v>
+        <v>0.1938284062521303</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H12">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.09530791525976</v>
+        <v>7.413711999999999</v>
       </c>
       <c r="N12">
-        <v>7.09530791525976</v>
+        <v>22.241136</v>
       </c>
       <c r="O12">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="P12">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="Q12">
-        <v>3675.208804848191</v>
+        <v>3931.488139900837</v>
       </c>
       <c r="R12">
-        <v>3675.208804848191</v>
+        <v>35383.39325910753</v>
       </c>
       <c r="S12">
-        <v>0.2142902490322425</v>
+        <v>0.1305705041071258</v>
       </c>
       <c r="T12">
-        <v>0.2142902490322425</v>
+        <v>0.1305705041071258</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H13">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.482924223468814</v>
+        <v>0.522545</v>
       </c>
       <c r="N13">
-        <v>0.482924223468814</v>
+        <v>1.567635</v>
       </c>
       <c r="O13">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="P13">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="Q13">
-        <v>250.1438104398438</v>
+        <v>277.1053785289317</v>
       </c>
       <c r="R13">
-        <v>250.1438104398438</v>
+        <v>2493.948406760385</v>
       </c>
       <c r="S13">
-        <v>0.01458512489475883</v>
+        <v>0.009203077226180089</v>
       </c>
       <c r="T13">
-        <v>0.01458512489475883</v>
+        <v>0.009203077226180089</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H14">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.679685318926184</v>
+        <v>0.8672823333333334</v>
       </c>
       <c r="N14">
-        <v>0.679685318926184</v>
+        <v>2.601847</v>
       </c>
       <c r="O14">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="P14">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="Q14">
-        <v>23.68465602732154</v>
+        <v>99.00475757415754</v>
       </c>
       <c r="R14">
-        <v>23.68465602732154</v>
+        <v>891.0428181674179</v>
       </c>
       <c r="S14">
-        <v>0.001380980267472825</v>
+        <v>0.003288093629041848</v>
       </c>
       <c r="T14">
-        <v>0.001380980267472825</v>
+        <v>0.003288093629041848</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H15">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.18365333282934</v>
+        <v>1.185693666666667</v>
       </c>
       <c r="N15">
-        <v>1.18365333282934</v>
+        <v>3.557081</v>
       </c>
       <c r="O15">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="P15">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="Q15">
-        <v>41.24617858150366</v>
+        <v>135.3530557625571</v>
       </c>
       <c r="R15">
-        <v>41.24617858150366</v>
+        <v>1218.177501863014</v>
       </c>
       <c r="S15">
-        <v>0.002404939242689874</v>
+        <v>0.004495274078024497</v>
       </c>
       <c r="T15">
-        <v>0.002404939242689874</v>
+        <v>0.004495274078024497</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H16">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.61944302727373</v>
+        <v>16.21723233333333</v>
       </c>
       <c r="N16">
-        <v>6.61944302727373</v>
+        <v>48.651697</v>
       </c>
       <c r="O16">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="P16">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="Q16">
-        <v>230.6644366559534</v>
+        <v>1851.280827449257</v>
       </c>
       <c r="R16">
-        <v>230.6644366559534</v>
+        <v>16661.52744704331</v>
       </c>
       <c r="S16">
-        <v>0.01344934184655882</v>
+        <v>0.06148375940159985</v>
       </c>
       <c r="T16">
-        <v>0.01344934184655882</v>
+        <v>0.06148375940159985</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H17">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.99023059359207</v>
+        <v>11.00545633333333</v>
       </c>
       <c r="N17">
-        <v>8.99023059359207</v>
+        <v>33.016369</v>
       </c>
       <c r="O17">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="P17">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="Q17">
-        <v>313.2780910317938</v>
+        <v>1256.329679963476</v>
       </c>
       <c r="R17">
-        <v>313.2780910317938</v>
+        <v>11306.96711967128</v>
       </c>
       <c r="S17">
-        <v>0.01826629280355178</v>
+        <v>0.04172455665648086</v>
       </c>
       <c r="T17">
-        <v>0.01826629280355178</v>
+        <v>0.04172455665648086</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H18">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.09530791525976</v>
+        <v>7.413711999999999</v>
       </c>
       <c r="N18">
-        <v>7.09530791525976</v>
+        <v>22.241136</v>
       </c>
       <c r="O18">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="P18">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="Q18">
-        <v>247.2466635683064</v>
+        <v>846.3135141512423</v>
       </c>
       <c r="R18">
-        <v>247.2466635683064</v>
+        <v>7616.821627361182</v>
       </c>
       <c r="S18">
-        <v>0.01441620107095711</v>
+        <v>0.02810731668090141</v>
       </c>
       <c r="T18">
-        <v>0.01441620107095711</v>
+        <v>0.0281073166809014</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H19">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.482924223468814</v>
+        <v>0.522545</v>
       </c>
       <c r="N19">
-        <v>0.482924223468814</v>
+        <v>1.567635</v>
       </c>
       <c r="O19">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="P19">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="Q19">
-        <v>16.82822006247042</v>
+        <v>59.65121052074332</v>
       </c>
       <c r="R19">
-        <v>16.82822006247042</v>
+        <v>536.8608946866899</v>
       </c>
       <c r="S19">
-        <v>0.0009812023369118812</v>
+        <v>0.001981104444712936</v>
       </c>
       <c r="T19">
-        <v>0.0009812023369118812</v>
+        <v>0.001981104444712936</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H20">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.679685318926184</v>
+        <v>0.8672823333333334</v>
       </c>
       <c r="N20">
-        <v>0.679685318926184</v>
+        <v>2.601847</v>
       </c>
       <c r="O20">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="P20">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="Q20">
-        <v>28.5236493823749</v>
+        <v>36.71209354854044</v>
       </c>
       <c r="R20">
-        <v>28.5236493823749</v>
+        <v>330.408841936864</v>
       </c>
       <c r="S20">
-        <v>0.001663127254537029</v>
+        <v>0.001219262628013878</v>
       </c>
       <c r="T20">
-        <v>0.001663127254537029</v>
+        <v>0.001219262628013878</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H21">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.18365333282934</v>
+        <v>1.185693666666667</v>
       </c>
       <c r="N21">
-        <v>1.18365333282934</v>
+        <v>3.557081</v>
       </c>
       <c r="O21">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="P21">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="Q21">
-        <v>49.67315273080109</v>
+        <v>50.19045717589688</v>
       </c>
       <c r="R21">
-        <v>49.67315273080109</v>
+        <v>451.7141145830719</v>
       </c>
       <c r="S21">
-        <v>0.00289629047875</v>
+        <v>0.001666898909935223</v>
       </c>
       <c r="T21">
-        <v>0.00289629047875</v>
+        <v>0.001666898909935223</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H22">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.61944302727373</v>
+        <v>16.21723233333333</v>
       </c>
       <c r="N22">
-        <v>6.61944302727373</v>
+        <v>48.651697</v>
       </c>
       <c r="O22">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="P22">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="Q22">
-        <v>277.7913054159517</v>
+        <v>686.4760501133403</v>
       </c>
       <c r="R22">
-        <v>277.7913054159517</v>
+        <v>6178.284451020064</v>
       </c>
       <c r="S22">
-        <v>0.01619716625026831</v>
+        <v>0.02279887938897055</v>
       </c>
       <c r="T22">
-        <v>0.01619716625026831</v>
+        <v>0.02279887938897055</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H23">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.99023059359207</v>
+        <v>11.00545633333333</v>
       </c>
       <c r="N23">
-        <v>8.99023059359207</v>
+        <v>33.016369</v>
       </c>
       <c r="O23">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="P23">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="Q23">
-        <v>377.2836902280803</v>
+        <v>465.8613774603697</v>
       </c>
       <c r="R23">
-        <v>377.2836902280803</v>
+        <v>4192.752397143327</v>
       </c>
       <c r="S23">
-        <v>0.02199826465046747</v>
+        <v>0.01547194159933921</v>
       </c>
       <c r="T23">
-        <v>0.02199826465046747</v>
+        <v>0.01547194159933921</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H24">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.09530791525976</v>
+        <v>7.413711999999999</v>
       </c>
       <c r="N24">
-        <v>7.09530791525976</v>
+        <v>22.241136</v>
       </c>
       <c r="O24">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="P24">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="Q24">
-        <v>297.7614340039001</v>
+        <v>313.8227057385813</v>
       </c>
       <c r="R24">
-        <v>297.7614340039001</v>
+        <v>2824.404351647232</v>
       </c>
       <c r="S24">
-        <v>0.01736156371869844</v>
+        <v>0.0104225136717778</v>
       </c>
       <c r="T24">
-        <v>0.01736156371869844</v>
+        <v>0.0104225136717778</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H25">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.482924223468814</v>
+        <v>0.522545</v>
       </c>
       <c r="N25">
-        <v>0.482924223468814</v>
+        <v>1.567635</v>
       </c>
       <c r="O25">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="P25">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="Q25">
-        <v>20.26638040415891</v>
+        <v>22.11934935834667</v>
       </c>
       <c r="R25">
-        <v>20.26638040415891</v>
+        <v>199.07414422512</v>
       </c>
       <c r="S25">
-        <v>0.001181671010926074</v>
+        <v>0.0007346161284143668</v>
       </c>
       <c r="T25">
-        <v>0.001181671010926074</v>
+        <v>0.0007346161284143668</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H26">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.679685318926184</v>
+        <v>0.8672823333333334</v>
       </c>
       <c r="N26">
-        <v>0.679685318926184</v>
+        <v>2.601847</v>
       </c>
       <c r="O26">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="P26">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="Q26">
-        <v>26.43627978961856</v>
+        <v>40.08632918537211</v>
       </c>
       <c r="R26">
-        <v>26.43627978961856</v>
+        <v>360.776962668349</v>
       </c>
       <c r="S26">
-        <v>0.001541419081313232</v>
+        <v>0.001331325956809384</v>
       </c>
       <c r="T26">
-        <v>0.001541419081313232</v>
+        <v>0.001331325956809384</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H27">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.18365333282934</v>
+        <v>1.185693666666667</v>
       </c>
       <c r="N27">
-        <v>1.18365333282934</v>
+        <v>3.557081</v>
       </c>
       <c r="O27">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="P27">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="Q27">
-        <v>46.03805586094949</v>
+        <v>54.80349917002522</v>
       </c>
       <c r="R27">
-        <v>46.03805586094949</v>
+        <v>493.2314925302269</v>
       </c>
       <c r="S27">
-        <v>0.002684339034666267</v>
+        <v>0.001820104820065699</v>
       </c>
       <c r="T27">
-        <v>0.002684339034666267</v>
+        <v>0.001820104820065699</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H28">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.61944302727373</v>
+        <v>16.21723233333333</v>
       </c>
       <c r="N28">
-        <v>6.61944302727373</v>
+        <v>48.651697</v>
       </c>
       <c r="O28">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="P28">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="Q28">
-        <v>257.4624507072116</v>
+        <v>749.5705709709219</v>
       </c>
       <c r="R28">
-        <v>257.4624507072116</v>
+        <v>6746.135138738299</v>
       </c>
       <c r="S28">
-        <v>0.01501185255262762</v>
+        <v>0.02489434123487092</v>
       </c>
       <c r="T28">
-        <v>0.01501185255262762</v>
+        <v>0.02489434123487092</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H29">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.99023059359207</v>
+        <v>11.00545633333333</v>
       </c>
       <c r="N29">
-        <v>8.99023059359207</v>
+        <v>33.016369</v>
       </c>
       <c r="O29">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="P29">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="Q29">
-        <v>349.6739516470269</v>
+        <v>508.6790407889914</v>
       </c>
       <c r="R29">
-        <v>349.6739516470269</v>
+        <v>4578.111367100923</v>
       </c>
       <c r="S29">
-        <v>0.02038842475553573</v>
+        <v>0.01689397918067306</v>
       </c>
       <c r="T29">
-        <v>0.02038842475553573</v>
+        <v>0.01689397918067306</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H30">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.09530791525976</v>
+        <v>7.413711999999999</v>
       </c>
       <c r="N30">
-        <v>7.09530791525976</v>
+        <v>22.241136</v>
       </c>
       <c r="O30">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="P30">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="Q30">
-        <v>275.971159032307</v>
+        <v>342.6663824401013</v>
       </c>
       <c r="R30">
-        <v>275.971159032307</v>
+        <v>3083.997441960912</v>
       </c>
       <c r="S30">
-        <v>0.01609103904973705</v>
+        <v>0.01138045460233735</v>
       </c>
       <c r="T30">
-        <v>0.01609103904973705</v>
+        <v>0.01138045460233735</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H31">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.482924223468814</v>
+        <v>0.522545</v>
       </c>
       <c r="N31">
-        <v>0.482924223468814</v>
+        <v>1.567635</v>
       </c>
       <c r="O31">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="P31">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="Q31">
-        <v>18.78328034063709</v>
+        <v>24.15235509717167</v>
       </c>
       <c r="R31">
-        <v>18.78328034063709</v>
+        <v>217.371195874545</v>
       </c>
       <c r="S31">
-        <v>0.001095195956357045</v>
+        <v>0.000802135239429097</v>
       </c>
       <c r="T31">
-        <v>0.001095195956357045</v>
+        <v>0.000802135239429097</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H32">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.679685318926184</v>
+        <v>0.8672823333333334</v>
       </c>
       <c r="N32">
-        <v>0.679685318926184</v>
+        <v>2.601847</v>
       </c>
       <c r="O32">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="P32">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="Q32">
-        <v>26.97283712236161</v>
+        <v>48.854626137994</v>
       </c>
       <c r="R32">
-        <v>26.97283712236161</v>
+        <v>439.6916352419461</v>
       </c>
       <c r="S32">
-        <v>0.001572704107704633</v>
+        <v>0.001622533996239891</v>
       </c>
       <c r="T32">
-        <v>0.001572704107704633</v>
+        <v>0.001622533996239891</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H33">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.18365333282934</v>
+        <v>1.185693666666667</v>
       </c>
       <c r="N33">
-        <v>1.18365333282934</v>
+        <v>3.557081</v>
       </c>
       <c r="O33">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="P33">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="Q33">
-        <v>46.97245573317081</v>
+        <v>66.79096134306199</v>
       </c>
       <c r="R33">
-        <v>46.97245573317081</v>
+        <v>601.118652087558</v>
       </c>
       <c r="S33">
-        <v>0.00273882104968807</v>
+        <v>0.002218226071663317</v>
       </c>
       <c r="T33">
-        <v>0.00273882104968807</v>
+        <v>0.002218226071663317</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H34">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.61944302727373</v>
+        <v>16.21723233333333</v>
       </c>
       <c r="N34">
-        <v>6.61944302727373</v>
+        <v>48.651697</v>
       </c>
       <c r="O34">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="P34">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="Q34">
-        <v>262.6879728658626</v>
+        <v>913.5281467026939</v>
       </c>
       <c r="R34">
-        <v>262.6879728658626</v>
+        <v>8221.753320324246</v>
       </c>
       <c r="S34">
-        <v>0.01531653685878832</v>
+        <v>0.03033961349659003</v>
       </c>
       <c r="T34">
-        <v>0.01531653685878832</v>
+        <v>0.03033961349659004</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H35">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.99023059359207</v>
+        <v>11.00545633333333</v>
       </c>
       <c r="N35">
-        <v>8.99023059359207</v>
+        <v>33.016369</v>
       </c>
       <c r="O35">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="P35">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="Q35">
-        <v>356.7710214434787</v>
+        <v>619.9451251088379</v>
       </c>
       <c r="R35">
-        <v>356.7710214434787</v>
+        <v>5579.506125979542</v>
       </c>
       <c r="S35">
-        <v>0.02080223331304534</v>
+        <v>0.02058928950660851</v>
       </c>
       <c r="T35">
-        <v>0.02080223331304534</v>
+        <v>0.02058928950660852</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H36">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.09530791525976</v>
+        <v>7.413711999999999</v>
       </c>
       <c r="N36">
-        <v>7.09530791525976</v>
+        <v>22.241136</v>
       </c>
       <c r="O36">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="P36">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="Q36">
-        <v>281.5723385546439</v>
+        <v>417.6196310406719</v>
       </c>
       <c r="R36">
-        <v>281.5723385546439</v>
+        <v>3758.576679366048</v>
       </c>
       <c r="S36">
-        <v>0.01641762679439322</v>
+        <v>0.01386976224005289</v>
       </c>
       <c r="T36">
-        <v>0.01641762679439322</v>
+        <v>0.01386976224005289</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H37">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.482924223468814</v>
+        <v>0.522545</v>
       </c>
       <c r="N37">
-        <v>0.482924223468814</v>
+        <v>1.567635</v>
       </c>
       <c r="O37">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="P37">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="Q37">
-        <v>19.16451048647989</v>
+        <v>29.43532876677</v>
       </c>
       <c r="R37">
-        <v>19.16451048647989</v>
+        <v>264.91795890093</v>
       </c>
       <c r="S37">
-        <v>0.001117424326833162</v>
+        <v>0.0009775905659308642</v>
       </c>
       <c r="T37">
-        <v>0.001117424326833162</v>
+        <v>0.0009775905659308642</v>
       </c>
     </row>
   </sheetData>
